--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value434.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value434.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.180247015364726</v>
+        <v>1.304492712020874</v>
       </c>
       <c r="B1">
-        <v>1.909612872166062</v>
+        <v>2.663942813873291</v>
       </c>
       <c r="C1">
-        <v>2.138538816940876</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.283770281237487</v>
+        <v>1.645938396453857</v>
       </c>
       <c r="E1">
-        <v>1.772182391456785</v>
+        <v>1.100188851356506</v>
       </c>
     </row>
   </sheetData>
